--- a/Projet_Android_MPE.xlsx
+++ b/Projet_Android_MPE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\533\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\533\Desktop\OMEGALUL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>En tant qu'utilisateur, je souhaite pouvoir finir la partie afin de pouvoir gagner la partie</t>
+  </si>
+  <si>
+    <t>Bouton pour commencer une nouvelle partie</t>
   </si>
 </sst>
 </file>
@@ -569,7 +572,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +639,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="9" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">

--- a/Projet_Android_MPE.xlsx
+++ b/Projet_Android_MPE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\533\Desktop\OMEGALUL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\533\Desktop\ProjetAndroid\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Bouton pour commencer une nouvelle partie</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/4865244/android-using-findviewbyid-with-a-string-in-a-loop</t>
   </si>
 </sst>
 </file>
@@ -571,7 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -922,10 +925,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,6 +1121,11 @@
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
